--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N2">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q2">
-        <v>35.796599413168</v>
+        <v>45.75261215101099</v>
       </c>
       <c r="R2">
-        <v>322.169394718512</v>
+        <v>411.773509359099</v>
       </c>
       <c r="S2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="T2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
         <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q3">
-        <v>52.931303546946</v>
+        <v>52.93130354694599</v>
       </c>
       <c r="R3">
         <v>476.3817319225139</v>
       </c>
       <c r="S3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="T3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q4">
-        <v>29.57903103329899</v>
+        <v>29.579031033299</v>
       </c>
       <c r="R4">
-        <v>266.2112792996909</v>
+        <v>266.211279299691</v>
       </c>
       <c r="S4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="T4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
     </row>
   </sheetData>
